--- a/GE_Input_Legend_Notes.xlsx
+++ b/GE_Input_Legend_Notes.xlsx
@@ -341,6 +341,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -383,9 +384,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +398,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -440,7 +448,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -461,16 +469,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -497,7 +501,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -561,7 +565,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1:D1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -637,13 +641,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="6" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -661,17 +665,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -997,17 +1001,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1061,17 +1065,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1104,7 +1108,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1117,16 +1121,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1168,7 +1172,7 @@
       <c r="C4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="3"/>
@@ -1179,7 +1183,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="3"/>
@@ -1190,7 +1194,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="3"/>
@@ -1219,7 +1223,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="3"/>
@@ -1248,7 +1252,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1264,7 +1268,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1274,7 +1278,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
